--- a/natmiOut/OldD4/LR-pairs_lrc2p/Pgf-Nrp1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Pgf-Nrp1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.27681666984828</v>
+        <v>17.470401</v>
       </c>
       <c r="H2">
-        <v>3.27681666984828</v>
+        <v>52.411203</v>
       </c>
       <c r="I2">
-        <v>0.5724198425175604</v>
+        <v>0.8600988665959021</v>
       </c>
       <c r="J2">
-        <v>0.5724198425175604</v>
+        <v>0.8884442399952684</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>105.073387288303</v>
+        <v>109.1447706666667</v>
       </c>
       <c r="N2">
-        <v>105.073387288303</v>
+        <v>327.434312</v>
       </c>
       <c r="O2">
-        <v>0.3516912742863937</v>
+        <v>0.3535542089399963</v>
       </c>
       <c r="P2">
-        <v>0.3516912742863937</v>
+        <v>0.3655959674582361</v>
       </c>
       <c r="Q2">
-        <v>344.3062270237356</v>
+        <v>1906.802910599704</v>
       </c>
       <c r="R2">
-        <v>344.3062270237356</v>
+        <v>17161.22619539734</v>
       </c>
       <c r="S2">
-        <v>0.2013150638418176</v>
+        <v>0.3040915743895016</v>
       </c>
       <c r="T2">
-        <v>0.2013150638418176</v>
+        <v>0.3248116314537675</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.27681666984828</v>
+        <v>17.470401</v>
       </c>
       <c r="H3">
-        <v>3.27681666984828</v>
+        <v>52.411203</v>
       </c>
       <c r="I3">
-        <v>0.5724198425175604</v>
+        <v>0.8600988665959021</v>
       </c>
       <c r="J3">
-        <v>0.5724198425175604</v>
+        <v>0.8884442399952684</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>44.8389682919333</v>
+        <v>47.980825</v>
       </c>
       <c r="N3">
-        <v>44.8389682919333</v>
+        <v>143.942475</v>
       </c>
       <c r="O3">
-        <v>0.1500805703827607</v>
+        <v>0.155424969272891</v>
       </c>
       <c r="P3">
-        <v>0.1500805703827607</v>
+        <v>0.1607186127944892</v>
       </c>
       <c r="Q3">
-        <v>146.9290787578055</v>
+        <v>838.244253060825</v>
       </c>
       <c r="R3">
-        <v>146.9290787578055</v>
+        <v>7544.198277547425</v>
       </c>
       <c r="S3">
-        <v>0.08590909646344549</v>
+        <v>0.1336808399123164</v>
       </c>
       <c r="T3">
-        <v>0.08590909646344549</v>
+        <v>0.1427895257972938</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.27681666984828</v>
+        <v>17.470401</v>
       </c>
       <c r="H4">
-        <v>3.27681666984828</v>
+        <v>52.411203</v>
       </c>
       <c r="I4">
-        <v>0.5724198425175604</v>
+        <v>0.8600988665959021</v>
       </c>
       <c r="J4">
-        <v>0.5724198425175604</v>
+        <v>0.8884442399952684</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>61.2503773798872</v>
+        <v>62.26741999999999</v>
       </c>
       <c r="N4">
-        <v>61.2503773798872</v>
+        <v>186.80226</v>
       </c>
       <c r="O4">
-        <v>0.2050112195598081</v>
+        <v>0.2017037397794264</v>
       </c>
       <c r="P4">
-        <v>0.2050112195598081</v>
+        <v>0.2085735992386923</v>
       </c>
       <c r="Q4">
-        <v>200.7062576329124</v>
+        <v>1087.83679663542</v>
       </c>
       <c r="R4">
-        <v>200.7062576329124</v>
+        <v>9790.531169718779</v>
       </c>
       <c r="S4">
-        <v>0.1173524900147584</v>
+        <v>0.1734851579724394</v>
       </c>
       <c r="T4">
-        <v>0.1173524900147584</v>
+        <v>0.1853060128586977</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.27681666984828</v>
+        <v>17.470401</v>
       </c>
       <c r="H5">
-        <v>3.27681666984828</v>
+        <v>52.411203</v>
       </c>
       <c r="I5">
-        <v>0.5724198425175604</v>
+        <v>0.8600988665959021</v>
       </c>
       <c r="J5">
-        <v>0.5724198425175604</v>
+        <v>0.8884442399952684</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>57.203059180278</v>
+        <v>58.81030666666667</v>
       </c>
       <c r="N5">
-        <v>57.203059180278</v>
+        <v>176.43092</v>
       </c>
       <c r="O5">
-        <v>0.1914644354330388</v>
+        <v>0.1905050633580386</v>
       </c>
       <c r="P5">
-        <v>0.1914644354330388</v>
+        <v>0.1969935053322898</v>
       </c>
       <c r="Q5">
-        <v>187.4439378882526</v>
+        <v>1027.43964039964</v>
       </c>
       <c r="R5">
-        <v>187.4439378882526</v>
+        <v>9246.956763596761</v>
       </c>
       <c r="S5">
-        <v>0.1095980419782937</v>
+        <v>0.1638531890750295</v>
       </c>
       <c r="T5">
-        <v>0.1095980419782937</v>
+        <v>0.1750177451289501</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.27681666984828</v>
+        <v>17.470401</v>
       </c>
       <c r="H6">
-        <v>3.27681666984828</v>
+        <v>52.411203</v>
       </c>
       <c r="I6">
-        <v>0.5724198425175604</v>
+        <v>0.8600988665959021</v>
       </c>
       <c r="J6">
-        <v>0.5724198425175604</v>
+        <v>0.8884442399952684</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.4001852114798</v>
+        <v>30.503993</v>
       </c>
       <c r="N6">
-        <v>30.4001852114798</v>
+        <v>61.007986</v>
       </c>
       <c r="O6">
-        <v>0.1017525003379987</v>
+        <v>0.09881201864964768</v>
       </c>
       <c r="P6">
-        <v>0.1017525003379987</v>
+        <v>0.06811831517629259</v>
       </c>
       <c r="Q6">
-        <v>99.61583366745218</v>
+        <v>532.9169898111929</v>
       </c>
       <c r="R6">
-        <v>99.61583366745218</v>
+        <v>3197.501938867158</v>
       </c>
       <c r="S6">
-        <v>0.0582451502192452</v>
+        <v>0.08498810524661511</v>
       </c>
       <c r="T6">
-        <v>0.0582451502192452</v>
+        <v>0.06051932475655943</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.833678482001142</v>
+        <v>0.8975426666666667</v>
       </c>
       <c r="H7">
-        <v>0.833678482001142</v>
+        <v>2.692628</v>
       </c>
       <c r="I7">
-        <v>0.1456334465606426</v>
+        <v>0.04418761940962108</v>
       </c>
       <c r="J7">
-        <v>0.1456334465606426</v>
+        <v>0.04564386429080782</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>105.073387288303</v>
+        <v>109.1447706666667</v>
       </c>
       <c r="N7">
-        <v>105.073387288303</v>
+        <v>327.434312</v>
       </c>
       <c r="O7">
-        <v>0.3516912742863937</v>
+        <v>0.3535542089399963</v>
       </c>
       <c r="P7">
-        <v>0.3516912742863937</v>
+        <v>0.3655959674582361</v>
       </c>
       <c r="Q7">
-        <v>87.59742201323054</v>
+        <v>97.96208851688178</v>
       </c>
       <c r="R7">
-        <v>87.59742201323054</v>
+        <v>881.658796651936</v>
       </c>
       <c r="S7">
-        <v>0.05121801239963183</v>
+        <v>0.01562271882531021</v>
       </c>
       <c r="T7">
-        <v>0.05121801239963183</v>
+        <v>0.01668721272393032</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.833678482001142</v>
+        <v>0.8975426666666667</v>
       </c>
       <c r="H8">
-        <v>0.833678482001142</v>
+        <v>2.692628</v>
       </c>
       <c r="I8">
-        <v>0.1456334465606426</v>
+        <v>0.04418761940962108</v>
       </c>
       <c r="J8">
-        <v>0.1456334465606426</v>
+        <v>0.04564386429080782</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>44.8389682919333</v>
+        <v>47.980825</v>
       </c>
       <c r="N8">
-        <v>44.8389682919333</v>
+        <v>143.942475</v>
       </c>
       <c r="O8">
-        <v>0.1500805703827607</v>
+        <v>0.155424969272891</v>
       </c>
       <c r="P8">
-        <v>0.1500805703827607</v>
+        <v>0.1607186127944892</v>
       </c>
       <c r="Q8">
-        <v>37.38128302011629</v>
+        <v>43.06483761936667</v>
       </c>
       <c r="R8">
-        <v>37.38128302011629</v>
+        <v>387.5835385743</v>
       </c>
       <c r="S8">
-        <v>0.02185675072662854</v>
+        <v>0.006867859388982558</v>
       </c>
       <c r="T8">
-        <v>0.02185675072662854</v>
+        <v>0.007335818551398554</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.833678482001142</v>
+        <v>0.8975426666666667</v>
       </c>
       <c r="H9">
-        <v>0.833678482001142</v>
+        <v>2.692628</v>
       </c>
       <c r="I9">
-        <v>0.1456334465606426</v>
+        <v>0.04418761940962108</v>
       </c>
       <c r="J9">
-        <v>0.1456334465606426</v>
+        <v>0.04564386429080782</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>61.2503773798872</v>
+        <v>62.26741999999999</v>
       </c>
       <c r="N9">
-        <v>61.2503773798872</v>
+        <v>186.80226</v>
       </c>
       <c r="O9">
-        <v>0.2050112195598081</v>
+        <v>0.2017037397794264</v>
       </c>
       <c r="P9">
-        <v>0.2050112195598081</v>
+        <v>0.2085735992386923</v>
       </c>
       <c r="Q9">
-        <v>51.06312163606145</v>
+        <v>55.88766619325333</v>
       </c>
       <c r="R9">
-        <v>51.06312163606145</v>
+        <v>502.98899573928</v>
       </c>
       <c r="S9">
-        <v>0.02985649048809549</v>
+        <v>0.008912808086870543</v>
       </c>
       <c r="T9">
-        <v>0.02985649048809549</v>
+        <v>0.009520105058296211</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.833678482001142</v>
+        <v>0.8975426666666667</v>
       </c>
       <c r="H10">
-        <v>0.833678482001142</v>
+        <v>2.692628</v>
       </c>
       <c r="I10">
-        <v>0.1456334465606426</v>
+        <v>0.04418761940962108</v>
       </c>
       <c r="J10">
-        <v>0.1456334465606426</v>
+        <v>0.04564386429080782</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>57.203059180278</v>
+        <v>58.81030666666667</v>
       </c>
       <c r="N10">
-        <v>57.203059180278</v>
+        <v>176.43092</v>
       </c>
       <c r="O10">
-        <v>0.1914644354330388</v>
+        <v>0.1905050633580386</v>
       </c>
       <c r="P10">
-        <v>0.1914644354330388</v>
+        <v>0.1969935053322898</v>
       </c>
       <c r="Q10">
-        <v>47.68895954323565</v>
+        <v>52.78475947308445</v>
       </c>
       <c r="R10">
-        <v>47.68895954323565</v>
+        <v>475.0628352577601</v>
       </c>
       <c r="S10">
-        <v>0.02788362562590106</v>
+        <v>0.008417965235270761</v>
       </c>
       <c r="T10">
-        <v>0.02788362562590106</v>
+        <v>0.008991544823557565</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.833678482001142</v>
+        <v>0.8975426666666667</v>
       </c>
       <c r="H11">
-        <v>0.833678482001142</v>
+        <v>2.692628</v>
       </c>
       <c r="I11">
-        <v>0.1456334465606426</v>
+        <v>0.04418761940962108</v>
       </c>
       <c r="J11">
-        <v>0.1456334465606426</v>
+        <v>0.04564386429080782</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>30.4001852114798</v>
+        <v>30.503993</v>
       </c>
       <c r="N11">
-        <v>30.4001852114798</v>
+        <v>61.007986</v>
       </c>
       <c r="O11">
-        <v>0.1017525003379987</v>
+        <v>0.09881201864964768</v>
       </c>
       <c r="P11">
-        <v>0.1017525003379987</v>
+        <v>0.06811831517629259</v>
       </c>
       <c r="Q11">
-        <v>25.34398025966005</v>
+        <v>27.37863522120134</v>
       </c>
       <c r="R11">
-        <v>25.34398025966005</v>
+        <v>164.271811327208</v>
       </c>
       <c r="S11">
-        <v>0.0148185673203857</v>
+        <v>0.004366267873187012</v>
       </c>
       <c r="T11">
-        <v>0.0148185673203857</v>
+        <v>0.003109183133625174</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.61400359270232</v>
+        <v>1.944141</v>
       </c>
       <c r="H12">
-        <v>1.61400359270232</v>
+        <v>3.888282</v>
       </c>
       <c r="I12">
-        <v>0.281946710921797</v>
+        <v>0.09571351399447693</v>
       </c>
       <c r="J12">
-        <v>0.281946710921797</v>
+        <v>0.06591189571392365</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>105.073387288303</v>
+        <v>109.1447706666667</v>
       </c>
       <c r="N12">
-        <v>105.073387288303</v>
+        <v>327.434312</v>
       </c>
       <c r="O12">
-        <v>0.3516912742863937</v>
+        <v>0.3535542089399963</v>
       </c>
       <c r="P12">
-        <v>0.3516912742863937</v>
+        <v>0.3655959674582361</v>
       </c>
       <c r="Q12">
-        <v>169.5888245807233</v>
+        <v>212.192823588664</v>
       </c>
       <c r="R12">
-        <v>169.5888245807233</v>
+        <v>1273.156941531984</v>
       </c>
       <c r="S12">
-        <v>0.09915819804494427</v>
+        <v>0.03383991572518456</v>
       </c>
       <c r="T12">
-        <v>0.09915819804494427</v>
+        <v>0.02409712328053828</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.61400359270232</v>
+        <v>1.944141</v>
       </c>
       <c r="H13">
-        <v>1.61400359270232</v>
+        <v>3.888282</v>
       </c>
       <c r="I13">
-        <v>0.281946710921797</v>
+        <v>0.09571351399447693</v>
       </c>
       <c r="J13">
-        <v>0.281946710921797</v>
+        <v>0.06591189571392365</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>44.8389682919333</v>
+        <v>47.980825</v>
       </c>
       <c r="N13">
-        <v>44.8389682919333</v>
+        <v>143.942475</v>
       </c>
       <c r="O13">
-        <v>0.1500805703827607</v>
+        <v>0.155424969272891</v>
       </c>
       <c r="P13">
-        <v>0.1500805703827607</v>
+        <v>0.1607186127944892</v>
       </c>
       <c r="Q13">
-        <v>72.37025591624575</v>
+        <v>93.28148909632502</v>
       </c>
       <c r="R13">
-        <v>72.37025591624575</v>
+        <v>559.68893457795</v>
       </c>
       <c r="S13">
-        <v>0.04231472319268663</v>
+        <v>0.014876269971592</v>
       </c>
       <c r="T13">
-        <v>0.04231472319268663</v>
+        <v>0.01059326844579685</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>25</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.61400359270232</v>
+        <v>1.944141</v>
       </c>
       <c r="H14">
-        <v>1.61400359270232</v>
+        <v>3.888282</v>
       </c>
       <c r="I14">
-        <v>0.281946710921797</v>
+        <v>0.09571351399447693</v>
       </c>
       <c r="J14">
-        <v>0.281946710921797</v>
+        <v>0.06591189571392365</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>61.2503773798872</v>
+        <v>62.26741999999999</v>
       </c>
       <c r="N14">
-        <v>61.2503773798872</v>
+        <v>186.80226</v>
       </c>
       <c r="O14">
-        <v>0.2050112195598081</v>
+        <v>0.2017037397794264</v>
       </c>
       <c r="P14">
-        <v>0.2050112195598081</v>
+        <v>0.2085735992386923</v>
       </c>
       <c r="Q14">
-        <v>98.85832914551085</v>
+        <v>121.05664418622</v>
       </c>
       <c r="R14">
-        <v>98.85832914551085</v>
+        <v>726.33986511732</v>
       </c>
       <c r="S14">
-        <v>0.05780223905695427</v>
+        <v>0.01930577372011646</v>
       </c>
       <c r="T14">
-        <v>0.05780223905695427</v>
+        <v>0.0137474813216984</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>26</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.61400359270232</v>
+        <v>1.944141</v>
       </c>
       <c r="H15">
-        <v>1.61400359270232</v>
+        <v>3.888282</v>
       </c>
       <c r="I15">
-        <v>0.281946710921797</v>
+        <v>0.09571351399447693</v>
       </c>
       <c r="J15">
-        <v>0.281946710921797</v>
+        <v>0.06591189571392365</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>57.203059180278</v>
+        <v>58.81030666666667</v>
       </c>
       <c r="N15">
-        <v>57.203059180278</v>
+        <v>176.43092</v>
       </c>
       <c r="O15">
-        <v>0.1914644354330388</v>
+        <v>0.1905050633580386</v>
       </c>
       <c r="P15">
-        <v>0.1914644354330388</v>
+        <v>0.1969935053322898</v>
       </c>
       <c r="Q15">
-        <v>92.32594303053212</v>
+        <v>114.33552841324</v>
       </c>
       <c r="R15">
-        <v>92.32594303053212</v>
+        <v>686.0131704794401</v>
       </c>
       <c r="S15">
-        <v>0.05398276782884405</v>
+        <v>0.01823390904773834</v>
       </c>
       <c r="T15">
-        <v>0.05398276782884405</v>
+        <v>0.01298421537978215</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.61400359270232</v>
+        <v>1.944141</v>
       </c>
       <c r="H16">
-        <v>1.61400359270232</v>
+        <v>3.888282</v>
       </c>
       <c r="I16">
-        <v>0.281946710921797</v>
+        <v>0.09571351399447693</v>
       </c>
       <c r="J16">
-        <v>0.281946710921797</v>
+        <v>0.06591189571392365</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>30.4001852114798</v>
+        <v>30.503993</v>
       </c>
       <c r="N16">
-        <v>30.4001852114798</v>
+        <v>61.007986</v>
       </c>
       <c r="O16">
-        <v>0.1017525003379987</v>
+        <v>0.09881201864964768</v>
       </c>
       <c r="P16">
-        <v>0.1017525003379987</v>
+        <v>0.06811831517629259</v>
       </c>
       <c r="Q16">
-        <v>49.06600815014433</v>
+        <v>59.30406345501301</v>
       </c>
       <c r="R16">
-        <v>49.06600815014433</v>
+        <v>237.216253820052</v>
       </c>
       <c r="S16">
-        <v>0.02868878279836776</v>
+        <v>0.009457645529845569</v>
       </c>
       <c r="T16">
-        <v>0.02868878279836776</v>
+        <v>0.00448980728610798</v>
       </c>
     </row>
   </sheetData>
